--- a/datasets/data_dictionary.xlsx
+++ b/datasets/data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiz\Desktop\projetRshiny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiz\Desktop\M2\Rshiny\STUDENT_GRADE_PREDICTION\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,15 +66,9 @@
     <t>Medu</t>
   </si>
   <si>
-    <t>mother's education (numeric: 0 - none, 1 - primary education (4th grade), 2 â€“ 5th to 9th grade, 3 â€“ secondary education or 4 â€“ higher education)</t>
-  </si>
-  <si>
     <t>Fedu</t>
   </si>
   <si>
-    <t>father's education (numeric: 0 - none, 1 - primary education (4th grade), 2 â€“ 5th to 9th grade, 3 â€“ secondary education or 4 â€“ higher education)</t>
-  </si>
-  <si>
     <t>Mjob</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>final grade (numeric: from 0 to 20, output target)</t>
+  </si>
+  <si>
+    <t>mother's education (numeric: 0 - none, 1 - primary education (4th grade), 2 - 5th to 9th grade, 3 - secondary education or 4 - higher education)</t>
+  </si>
+  <si>
+    <t>father's education (numeric: 0 - none, 1 - primary education (4th grade), 2 - 5th to 9th grade, 3 - secondary education or 4 - higher education)</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,215 +1167,215 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
